--- a/창업기업평가_하나은행_2022_원본_11_10개독립변수.xlsx
+++ b/창업기업평가_하나은행_2022_원본_11_10개독립변수.xlsx
@@ -330,58 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T02</t>
-  </si>
-  <si>
-    <t>T03</t>
-  </si>
-  <si>
-    <t>T04</t>
-  </si>
-  <si>
-    <t>T05</t>
-  </si>
-  <si>
-    <t>T06</t>
-  </si>
-  <si>
-    <t>T07</t>
-  </si>
-  <si>
-    <t>T08</t>
-  </si>
-  <si>
-    <t>T09</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>T13</t>
-  </si>
-  <si>
-    <t>T14</t>
-  </si>
-  <si>
-    <t>T15</t>
-  </si>
-  <si>
-    <t>T16</t>
-  </si>
-  <si>
-    <t>T17</t>
-  </si>
-  <si>
     <t>T_07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,6 +348,59 @@
   <si>
     <t>T_46</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>D06</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>D08</t>
+  </si>
+  <si>
+    <t>D09</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
   </si>
 </sst>
 </file>
@@ -794,7 +795,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -816,73 +817,73 @@
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="S1" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="T1" s="12" t="s">
         <v>73</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="X1" s="13" t="s">
         <v>74</v>
